--- a/wraprows-wrapcols-demo.xlsx
+++ b/wraprows-wrapcols-demo.xlsx
@@ -8,28 +8,309 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9F8DD-8271-4305-A31A-29C079E111C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6105E-0D12-4996-9199-07725CFFF00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original 6x2" sheetId="1" r:id="rId1"/>
-    <sheet name="Reshaped 4x3" sheetId="2" r:id="rId2"/>
+    <sheet name="wraprows-1" sheetId="4" r:id="rId1"/>
+    <sheet name="wraprows-2 " sheetId="3" r:id="rId2"/>
+    <sheet name="wrapcols-1" sheetId="2" r:id="rId3"/>
+    <sheet name="wrapcols-2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+  <si>
+    <t xml:space="preserve"> Alice Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bob Barker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlie Chaplin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denise Daniels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edward Edison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiona Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> George Goodman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helen Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian Irving</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julia Jensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin King</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laura Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nina Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oliver Owen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penny Parker</t>
+  </si>
+  <si>
+    <t>Meals Number</t>
+  </si>
+  <si>
+    <t>Meal Name</t>
+  </si>
+  <si>
+    <t>Pancakes</t>
+  </si>
+  <si>
+    <t>Eggs and Bacon</t>
+  </si>
+  <si>
+    <t>Greek Yogurt</t>
+  </si>
+  <si>
+    <t>Turkey Sandwich</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Leftover Pizza</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Grilled Chicken</t>
+  </si>
+  <si>
+    <t>Vegetable Stir Fry</t>
+  </si>
+  <si>
+    <t>Smoothie</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Pasta Primavera</t>
+  </si>
+  <si>
+    <t>Muffins</t>
+  </si>
+  <si>
+    <t>Tuna Salad</t>
+  </si>
+  <si>
+    <t>Burger and Fries</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>French Toast</t>
+  </si>
+  <si>
+    <t>Salad Bowl</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Steak Dinner</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Define Project Scope</t>
+  </si>
+  <si>
+    <t>Develop Project Timeline</t>
+  </si>
+  <si>
+    <t>Identify Key Stakeholders</t>
+  </si>
+  <si>
+    <t>Create Project Charter</t>
+  </si>
+  <si>
+    <t>Assemble Project Team</t>
+  </si>
+  <si>
+    <t>Conduct Kick-off Meeting</t>
+  </si>
+  <si>
+    <t>Allocate Resources</t>
+  </si>
+  <si>
+    <t>Draft Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>Set Up Communication Plan</t>
+  </si>
+  <si>
+    <t>Design Project Workflow</t>
+  </si>
+  <si>
+    <t>Establish Quality Standards</t>
+  </si>
+  <si>
+    <t>Create Budget</t>
+  </si>
+  <si>
+    <t>Schedule Regular Progress Meetings</t>
+  </si>
+  <si>
+    <t>Develop Prototype</t>
+  </si>
+  <si>
+    <t>Test Prototype</t>
+  </si>
+  <si>
+    <t>Gather Feedback</t>
+  </si>
+  <si>
+    <t>Implement Revisions</t>
+  </si>
+  <si>
+    <t>Finalize Documentation</t>
+  </si>
+  <si>
+    <t>Review Project Completion</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>Team C</t>
+  </si>
+  <si>
+    <t>Team D</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Phase 5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,8 +336,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,97 +642,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9743A7-F8B4-4374-A8AA-6F12B8CB921E}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1:D8">_xlfn.WRAPROWS(A1:A16, 2)</f>
+        <v xml:space="preserve"> Alice Anderson</v>
+      </c>
+      <c r="D1" t="str">
+        <v xml:space="preserve"> Bob Barker</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C2" t="str">
+        <v xml:space="preserve"> Charlie Chaplin</v>
+      </c>
+      <c r="D2" t="str">
+        <v xml:space="preserve"> Denise Daniels</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
+      <c r="C3" t="str">
+        <v xml:space="preserve"> Edward Edison</v>
+      </c>
+      <c r="D3" t="str">
+        <v xml:space="preserve"> Fiona Frost</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="C4" t="str">
+        <v xml:space="preserve"> George Goodman</v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve"> Helen Hayes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="C5" t="str">
+        <v xml:space="preserve"> Ian Irving</v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> Julia Jensen</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="C6" t="str">
+        <v xml:space="preserve"> Kevin King</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> Laura Lee</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="C7" t="str">
+        <v xml:space="preserve"> Mike Miller</v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve"> Nina Nelson</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="C8" t="str">
+        <v xml:space="preserve"> Oliver Owen</v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve"> Penny Parker</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="D4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -459,15 +789,831 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1347D61E-4EA2-4908-A8D2-1EFD47DEAAE1}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C1" s="1" cm="1">
+        <f t="array" ref="C1:I5">_xlfn.WRAPROWS(A1:A31, 7, "")</f>
+        <v>45658</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45659</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45660</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45661</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45662</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45663</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>45659</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45665</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45666</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45667</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45668</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45669</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45670</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45672</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45673</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45674</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45675</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45676</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45677</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45680</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45681</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45682</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45683</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45684</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45686</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45687</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="I5" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45666</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2:K4">_xlfn.WRAPCOLS(B2:B22, 3)</f>
+        <v>Pancakes</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Eggs and Bacon</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Greek Yogurt</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Oatmeal</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Muffins</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Smoothie</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Soup</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Turkey Sandwich</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Caesar Salad</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Grilled Chicken</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Sushi</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Tuna Salad</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Salad Bowl</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Cereal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Leftover Pizza</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Vegetable Stir Fry</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Pasta Primavera</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Steak Dinner</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Burger and Fries</v>
+      </c>
+      <c r="J4" t="str">
+        <v>French Toast</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Tacos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:G6">_xlfn.WRAPCOLS(A2:A21, 5)</f>
+        <v>Define Project Scope</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Conduct Kick-off Meeting</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Design Project Workflow</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Test Prototype</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Develop Project Timeline</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Allocate Resources</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Establish Quality Standards</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Gather Feedback</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Identify Key Stakeholders</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Draft Work Breakdown Structure</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Create Budget</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Implement Revisions</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Create Project Charter</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Risk Assessment</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Schedule Regular Progress Meetings</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Finalize Documentation</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Assemble Project Team</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Set Up Communication Plan</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Develop Prototype</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Review Project Completion</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>